--- a/DataPHP.xlsx
+++ b/DataPHP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Dữ liệu Cinema-PHP</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>lY6kryYCciA</t>
+  </si>
+  <si>
+    <t>Avengers: Age of Ultron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lPpfK1K1qNU </t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoGBxQUExYUFBQYGBYZGxwcGhoaGiAdHx0hHxshGh0bGyAfHysiHxwoIh8hJTQjKi0uMTExHyE5PDcvOyswMS4BCwsLDw4PHRERHDAoISgwMjAuMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMP/AABEIARAAugMBIgACEQEDEQH/xAAbAAADAQEBAQEAAAAAAAAAAAADBAUGAgEHAP/EAEQQAAIBAgQEBAQEAwcDAgYDAAECEQMhAAQSMQVBUWETInGBBjKRoVKx0fAUQsEHI2JykuHxFTOCU7JDc6LC0+MWFyX/xAAZAQADAQEBAAAAAAAAAAAAAAABAgMABAX/xAArEQACAgIBAwMDAwUAAAAAAAAAAQIRAyESBDFBEyJRYXGhMoHBBSMzsdH/2gAMAwEAAhEDEQA/AMxk11b4aSko5zf1wlQUwJsDsOuKNEQAZ09IE/bFznQ9lkXYEgxaN7/1w2UCDQoAgR+/1wfgHCHRvFcB1KyCdPMSDEmI9eWKWepgappAED8KSJOkG3cH9nCt7HrRDWkTgOXFRqoAlUBvIEmb+WBaALyeY2OLKcPYEAi5MC/th7hnBzTB8thOomCS1iSxO7EHfucbkBREqeVwdctiscvqAhQIN9hyn15jHdPJ8o/ZwLG4kpMvggy+KRpcgARzN/YAR9++PBl7T1Mf/SD9IwLDxJrZfthepRxVr5WdNgb2mOY/Z+nOMcPR2np+Rj88FMDiSzTGA18uOWLdPKW+UGYI+X+u0/vlgJofL5AJg303Gk9+cg/TG5C8SCctHLHFfLnSdAlzZR1PIYtPliBLDfbuNsFOVIEBASOdje5H3FudsHkBQsz+SpalBgg8wf8Ajbvgr0cWK9NdQYpCzpIUieZuftPUY6pZYACaYaYtI6at9xI/PG5B4mfZOWFa1LF/PZTY6QAN4jncbb2/MY/ZXLJv4cpIHm08hLSSbCMbkDiZapSxBzee0uUkQCZb03Hrj6JnOH64FOkEOvbySf8ADvfcYx+Y4UI01QGYMxYi1yxJvh4ysRxoRFEESHJ2nb6bW2x5/DH8f5frgVbKik0I7ahy2I9W5emC/wAU/Vf9I/TDi1Yzl0LOWaAgF+vOPQDE3NcQIYeHUZwvXn09RbF+rlx4LaiVWBqYchIn3i3vz2whwrIguauhVUxoSJ0ryJJ3YjniZXwargXF6xokPAZdIgLEDSCBcnff1J2w6+daoRqIJgQI3AIIkTtt+WEeGJLMpUgEAhh1vY2/XHlCkzuCzEBTYC0xYkkRvtbke5wtDWaClUYsGO42t7j9+uH1cwR139YicTsnmAavhwZ0hp9yP6fcYsUaY1dz3P2Exz5YRjpHtCmTIncyfoB/TDdLKmeu32wSjTw3RXCtjpCacOEc+X5z/tj9/ABRA2mf6flyw3TqCWAJMm3brGGKlMQMLYaIb5KSbXYAHntMbjvgdTL8sU8ycKVMNYrEFrh2ZFYakiVgWmeR5X9L45q0jY2tbb1/KT9TyJlnTt9zt3P3xzWpCJmI32v64YWifWExO0297R1x47vJM3O8esjBqGYpkkKwPb9OuG0oqSTF4ieeM2aiS4Y7/ud8JcR4r4ZVC4VYNouSIMDcSRziRJxS4lqQCFLEkCBc9T9gcR3oK9Ry6zKrpkCy3kDodU3BuI6YZbEemHqcTov5VqAzEAyJgQsFuYkjr6zgyVdICsQFvI0TMjmft6YRy+Wp0xpCyvRiWX/SxK/bB6rouhGISVkALYLMCwERvYbRjOktm23o6fOga/P/ADSDpMmwv6i49h2jM8bzh80R4jksx/DJJkdzy+uLWbUBSRyvYTz5Ab4zXF6QDuLDzSSTvIECTy7dMNFUK99zP57MtZUHv07nqcKaD/6jfXF1qKsCJWI1bzAncxy3wh/E0vxj6N+mKJg7GpzmWlF1DUovBMrMRdZg+4MYWWpoBJSEW0jp1A6DFbLf9th1Xn2OIvEyVakQSQCSy8iLTI2NpHvhAtGhyo+R5soJ7GRE/SfrjvgqBl1q5dWJKkgCOUbCbzc4j5bNVVDkWX/uIpgDwwCCFHYFTH6YsfDtMLQHhXlNQDkDzGBBPJO/Y4VjRRWpVglRFCAu4a5IXypBN4k77fli7Sy6My1IBKjyt2I5crzjAcK4XWzJ11KxCq1QBpN/MZNMTZIjp9sbfgUihSUiDoWwtHl+2EZRMsUzGCOzR5YnvhZGi2O6VaZi/L36YQcWq1fDcqDtH5DD+WzutY54z/HHZagJ3IG3YQfy++BcP4gdQI5RP9MZrRkaGoOuANTx0tUHYg3g3Fj3jHLKJmL9cZAYNqYxm/jLP6dCzA0z3MsR/SMaBiV1FmtuLbCNsZf4pyr5iiK1H56Yby7ll3jazfqe2Hj3El2JvB+J/wB4A0KOUkdZBPRe/p642lKoD2PTHyMpKCoGlpaRG0QJM9Z2jl9NT8J8aNR0psfNsDz+U27xyncdxd5RsSMvBsqgnE/NUsOVWIFhJ/3v9sJZ7NRFpJIEW5n+mFQ0hCrRxC+L8sdC1g5SpTAUQFllZgBuP5ZbqI9BGmcjnbr264+dZIPnGdzUalTks9Rj5SW+RQCQBAhQAdlnfDVYl8dhKfEKzwr1qiAgAlbbc4A099sHPw/SqqaherWYn+dtuwAA/PBKPwy8S2ZpqvobjpMEe+qMROMV3pu9EeSLMQ0lvcWI9AJ7bYqkvAnJsazyoKbImlYEaRA/K2M5/Ct2xRyWUc09cSsxY7wJ29MJvVIJGjbsf1wewGfQspVEKO8H3xPrq0S8alfytaCGOw9uXbC2bqVUupkbARNztPP6RiiaJZIbysQDe4BmdzffEmUQ5k6aeGRUJAZStotaLWMW/Zx5QyKU0dmYtRRCKiwwMxIkKbwDM9x0Bwtl3LIybsDt1jCfG88wy8i3iKoaDzpOVA/0lPoO+Fq2G6TNflc0BTptTTxEIiUiQp5gW3i4G2L+VsMfPPhTOuUy1OmZKs2tAQsoSCGPWLib4+gj5fLDe/eL9hz9NjhZKmPF2jpOJ0iYFRZAJMHYCJJ6b4bo1BBg849ItA/e84hcK4OdbVa12bTpXYBQBAKgxy+UkxF77cfF+frhdFFjT/FUi5/woOfdvYTeFdDdi7VpB4LJdSYn6fQ4mUsqEzGgRpZS8HpMED0aI7NjH5bPZuq+kZnzSW0kiTa8cgBE7Hn1xoPhPjv8Qxp148ZJ0sLFhMNBBuCV27XnBApGmpwNgBt72t7Y6ZoBP6nEfilbMU6bVwyAAD+6ZeUjdg12vyt064W4Px5jTmqr6SxAq6RpExAYACACd/T21Gsu1FDjscBo5UJ7mffrjvJZc0wVLlr2JuY6H/bDCi4xroxiPjHgINQaNNNWk1CZgMxUzA6x2/m35PcI+E8vlSKrFqtUbGIG0HQgPQ7kn2x1xfNVDV0tpCvqUzNgARJPWT6bcsVuFZ3xqCuQJJYW7MQPtGNGUq2aUY3og5/jNQVtAQLqIA8Syi/zSLwRPp7Ycp0qn/xChPLSpsb82JnfoOePOOcLFVkbTqAlWFp0tbUO6zIGD5ssB5GCkuiBonTqMFlm2qAQCbAkG8QWbpWKlbo8qcPeJ0/cA/SZxl/jHhlOguVp6VWkHeoyqu0BVAgXi7dzJwHM52mHHgmrVZmZSyOWE7wzMdJjpEXtisG/iV8GpDVURtDxuDKjmYIJjc/SMTWRt0VeNR2ZjjGdqUwXSIYKKjBQF1bK6gbahG87CZN8ZviGeeuEFQKCsxUMi2/mN5A9MaLj3EQMv/D6DrkBmMRCkEAc5sJ+uI2UzNMBgyhkI5qLbHfcc8WtxXY0Iwm2ux1kqrKqgHy8xykbH7AemBfxC/hb6YnpxYLKw0TPzah7TsP3bHf/AFJfxR2jbFKOWS2batRkKwNxBknYq04X4Tm1c6VEgajc3gtYMOduf/J8paqgqUmBQW0k2v0J74S4PQ8BnrPZUBDX3PJR1P6ThXRk2Go0aozBGtR5rFmAJ52W1+UYe+JeHVCvjU5ZGGmqEFhbeou6meo3uDjK18z4rtULaWck3Ej0ttGw9MVuE8brUILExHldWuvYMOX+FhHbE+TTsbXY44VmPCqIVsyEETtv+XbH1PhVcVKa1FEBrkT6gx7j33xg/iJ6VVKVZUAqMzqwFlcBVIfSIhvMAYgE49+Dc5V/iKaB30iRBJKxBJtsNt+uGl7lyQYvi+J9EpJU8WQYpgCQbyeZHQAR63tzxh/jOoyZisRLLZY1aVDaQbm5LANyt5l3iMb+l1jfHzf+0qqErnToMjSdW++owItc3O5gcgBiL2yj0iRwamquCajIwIbYN78j+9sUyhp5xXonUrMGUgEfMZIj1nGZyHEEVgfW1rSOXaeWNtwDN0W8PMVHCpS2E3ZySAoEXjfewwdpix3o2/GcqKlHQTbVT/8AeAZ9jhXhPDtGWaiwIDl7CCQGMAXG8dRiWP7Q8qTHmE7TE+4En2EnF+jn0NPxlYVEClpXmQNv32wLoo4kHjnx5SpO9ChTerWW1hMEWNhy9cA4V8W5kNqzOWK0zzXSSvcqDMfliPX4tSo5Vc01PVmMy7VCFFySSQCRsqrA58zFjgWbzGe10WQ0lp1EVtGkFhNirTJ98TttllFUd/2l8SfxaZRy1J6asgHyx/h7zMze2Pfgv4qOsU2+VoEdJNj979vTBMlwgZnxMuzaKtI+NRYeYDVarSINyhYKY/xSNiDjeBZVhmgKkoA8ONoM/L69eg746FTicztSo+zsZwCpli4ZLSYKztqVg6zF4kQexOPeGVzVphtJ1bMANjz9uci2GqNenSBq1mCKu2oxJ7DmRhbTiMovlRgeLiCFy4CUwdQVD5bgL5tPmdgZG+kBd8RqfHzlnFRCGNNjqv5TM2YXF+XY4B8WVQ9V/BqMqEmBECCZiQb/AExFr5CstEhqTBWIhos0GdzzwIwTRTI5RdSVH0PO8Dy+aKVadTyuNVxvt5d51CYI3nYXgYDjPBalJocC+xDBgfoTjj4e4xVy1USJUGdLbTtMde+PpefyIzNJaylA7GNQaAwIEBrWIn92xSLlF1Lsc8qkrXc+SUeF1qh/u6btfkDA9TsPfFWnwGrA9B/MMbLh1JU10g+p9WppPQQPyjEzUP3GK3ZPfkoihrdD851QoJ0qg5QBOok7k9tsZz4i40KuqJKKSqDYHox5kt7WkCMUcrmjprVjIRacgEjcCI3tLwvvjHvUJlQJGolfrthJADAA3uvof6bYYyld0YR5uY9ehG3T6494Nw816iUoIDMAT741GTy1PQU0aXBEMshp2tyM+nLCJWMhngrM2SOXq00FSCymFDBiQ0zv1nscL8FpPl64dlOpCZX1BX+v5YsGllsuA1VzUfYUwwCg7EMwE72gdDexANw7j1Guza6VFLRq0mQBYecnWft74yko2kF1qzT8K4ylSkKjSgmII5jpyP1tj55/aGcvmXZ6KtNOBUcXVpmLdQFuf2b3FM1lXHmdyQANNKFUemsWn0xk+LZxdBo0UKIdyXBJ9YG/Kek9cKlu0GUvDMg1MAwDONf8M8NOZZKTEilSQmFJHmdiv/2j6DpjO5zKgecHY3ED7f8AGNd/Z07VaWZpo5Rl8Fg3ONTSB+zdhY7YOS+Nhw1z2IfGXwzSpT4QK8vmMbTYTij/AGUcbTLJmFzLN4RKKq7iSG1Ed4j7zFsA+KdQzHh1ajlWogggiDUJMzEE2Ex22vgHw1knc6imqn5wwHlDQFAgkiTcGDfy2xOO47ZfJqWlRd4cVSi1MKKhSowpMYvRYqyEgGQRZSD2xE4tUVa2rSGqG2uqTdrgrSAuFAjzAEdrTir/ABIo+QDyExqvKqZlSvUMZntzxM+I+I5igoNOmqzINRoZr3tGw58sIk+Q6nHj9in8Mq38ZSAgPuZJgx8wBIkmJP16nGi+Nfhz+ITxKS/3y7gWLjp3YcvcXtj5DS4nWdwTVYsDYg6bm1iL8/vj6NwH45dUWnUpmqyL531RblIjzH3HLnjpjil4OaeaKtt9iA3xNmaRAVmsIiL2sdXfFWj8T5fMFTmsulRlEBnQEgHeJH/GJHxD8TGvUlQtPU14FhJ3+8ltze/SNx5fBqhFq+JInoRMRME7zaOmGfTJLbpix6mUtpaHeLZFVqO1CowpgzpjUyA7Ecyv3HffDSfEtfw/DdxUokjVpWSP/EkAHbmMReHNUUl5BVSQ0nZYvM9sI06/mZlsCxNrQCdvpg44+H4NllaTs2eTyeSryVczHow/zI0yvcN6YdzfGWp03RV/mkgXiygjttPvOM9w/gTvSesHCsgDEGxggEd9iD74DkeKMW8zeYGGPpKhvXl3gYMo2LjlxknQRsyxbUNS35E/0IwTxz+Jv9QwuFoVgdWpSd9BEe0i2Bf9Jof+s/8AoH/5MCK0dGTJG9DGYn+BrGbvVpJ7DVVPpcAn2xAyRhr98akUWei9KBuKwgbhEfX2kW++I1CkPrhWzla8Fb4fqeGweNiCPYhvzAxpOKcUyyOalKTUqDaNOgG4uCSWggcoid8QMrRAXCFVpqGfQewG31H3wgyLWfq0ay+Wn4bAeUhj02I2I+mIVOq1OZmAd4MH3w3VDKASCAYuVJEdQJXV9RjxkAZiyHTpGtV82tWWP7tgzKCsh1kllMqSebQg32GUFVtkzM56/rgLZoHf64dr5NalNmp0wugLUk1JbQzNTggG5DBTMKfNERpJqf2d/DhzFfxH1JTQOVqadQDqBeOYWQZ/FoxpLirZuD5KLJ2W+Ga1ZSS1OkIkCtVCFvRbkerBRcQcMfCucfIVGr1wPDYGlpV1eSSrBhpJXSsTqncEDnCPxjTNGu6iqag+YMylSQezXnrhDK5JHptUqVIJgKi+Z2m2w2ExvG+JKTlHaPRfTYYv2Sba+dF/4gZfGU69TkDSwKxf+UKCekwQN+eLvDKqBadNCT5SzAXPzQWjpYX5Yw+Y4S9KsaFV/DYAXYagJAImAWBItBHMY3vwJwrLm71dZUwGiDFjIuCt/L6MfUG4qOyHo5J24rQlxauA5WAzssLLab2gkkgCBMkz6c8ReP8AGmfLrRMEmCxIhgixoH11CegXkQTs/jXNVQPCy60yhglwIq6FMurmQHQjnHSeplUfhijUy4rvqWorlIMgsZKlSDfcEzysLzauJRlRLNCWODbdNePJh+D5fUTuLEj7T6WnD9HOsjmCRyMWnnhz4hZKB0U4nTvziSCQOWozfp0mcZivmTOrnF8dF8XZxOLyKmU8yqsdQaOgwsQFI0jU/Tc4VyuX8ZhEkkwB3Jx9H+HfghKS63Mn+Y7DqRPT7nA9S2NLD6cU2+/gxeb4fWem1QwOZQbmOZxIoZnScbf4gzoptpVWUT8kDbkWG8+uMLnEhzAtMgdB09MZ2thx+5cWV8nnoETIJFpifXth2pTRgQPKx3uIse2M1l6kNcx/TF/gtWnq1VEFRR/Ly/f6YyZpxaBCiyBenXaOgx+1HBcwSwI5TIG0diedsBBfoP37YFGT+TQZaoNCyY0FgSdir0yjGenmxDVKgOkiCsg2jnbFTIPqSIF9x19sd5qoUosdAZkU7gCPc7R07YmuN7HlFvsByz1GBgWG1um5+tvbFPL5AsslZ9RibwKlNGmfKTF/mn5j36X98Ws1WFPRKqysJBEj633w9QFqR+4V8Psz+VGg6phT/MRJlbk+UWkjtfGz4N8DB6eupsykBQIifSPpzjCHAMwCNVOFBADL/Wdz7nFlviJssNJjQ06Cf5TzBnleRPL0w6Umqh3ElPj+raMZn/g2t/ECiA4psUUvomRBUSbDZpvzAnHXGaPEKRTKZZS1FQdPhr4bASSS7EjzSWJJIEnFGv8AETVcxSWkL6hqjSwMEE6dUcliSdiY7q/G/wAXURTZcvT8OqSwciVIgjc9TcH3w88c5NJov0s4Si1J/Z/BE4txkrkfCNIVK9Uy9RlnTpZgpsYNQLaPlFyd74VMtUkmCL339cEq+LUaLgGSJsI33Nox5UpEGNcrMa1JIkW/3GFUccG1sMJSu3sZzBZtTOpZjJ1GZk8yZufWcNcHzTowkNHUGCP19Pyx7wvg4qtH8SPQCWNvWP3yxSy1OjQSrRzNOammaVRWgEyBpI/FebWInpOJ8IPSO5dW47jp/Q+gN8Ls2Sp5hahZzT1NplTpaC6gg3sLiOXUYj5sGo1Gj4rsr1KlV2YSUFNJlogEBiBNp8gubYznBfjXM0KNTLqwakwIAa5Sdyh5Te218fuH/EVRaSOjlTNVWjY6QKlPVO8M0g2PtgqNRaX7HBlnKUm5md4pVYsWJJnmd/fEzxBtitxrPGs7VSsFzqIG0n5o7EyffEWL9MNJ6Exqx3gfEFo10qESqm4/rj6hW+JE8LVrJQKGOkxPMCRfvaPtj5AwxS4G7O60ZOl2URO3mBP1AxJdxskbV/BRzoqVWNU6V1fyibDcDcT6/nifm6BPzAzy/wCcXeLjSTG3IdL7YlVM4jAi4jl+nfF5xilRzYckpO0hLKZMsjmPlj3vGGaS+XnHK+LGWpJ4GtRDGmdW5k6Ym8354k0XuFIsRiUTom03oepVVdTTFNEgWbdifxMTe/awmMdeD/iP0wvRRRETMm8/v9/dvwGwRe4Slc/NpI5j9MUsy3iU2EwYIIESQbQx6x0xnuG5ixJ+YWM9dwff9fd/+PCaQAIsTP5Wueu/PE2h7CZGaS6GZdJkqzAAzYEMZtyAO3WJxRpVQBDBivNSJg9fXEislSsaaLqBZvKQwW5BVRLEC573NsNZUgIAZmSCCOkD2Mz9sC9hrVlfK5qqulqCa3YxoNlgbtuLbYt06lWrSanmaS6SZUo0kEXA25mQDe8DnGIXC41go8WMxBIFjYTvIFu5xTylYDNKulm1BULlzJhiNX4ZuG7MBbC+vKE6KLDGcLYtluCIWCivpm/ySY9Q0Yi/FPD6eXrmmGLQFILRNxO2Nzm0QuarBqaKNbx5STJMDpq6euMs3xy7VNDKtJdjopJUAGwFTWGZhFj746cnWvwr1shj6Jy3dfUyLwQZJtcfpidnlW8A3E/eP36Y3hyGWzTlKYFKtBKOgC02NoDJfSd9oHPrjO/EOQGWQ0qlLTWZlYtq1KViQFuQL7+gxzR6iOTR0x6SWN7M9UzDKQvIRblPX1xdyWZOYplHbzASrNeOxJ7gX74hZmurT5YMyCPyOD5CgzL5Z7kAkCdgY6xPt3xTv5JtV30OWDsoM/07HuNjjnh5LeInWCB3X/b+mBLRam0MBPbb/b3w5waiC1Z5uiqQI31NpJ9BP3GKN07DONx2BSiXbTyJAk7X2x+znDzTcKbTF4+pxouGZFK1GqRCvT/vCSQBp2JJO0R6SRhX4gzNGrUDKC+mIJJCza4G525wOxxLJk7plOlwzm08a+U/p8MhZnIAGA026beuAcPpOtRWUNImDfpb0xbpVlAmPyAH9MPrTqtdKTsOqoxH1AxJ5pXqJ6cf6XjUH6uRJsiZrNN/MZ/XCGnWwA3J36e+NLmspWW7UHjqabfphTLpSLiYB6qftij6l1uJzr+lY1/jyJ/gPl6+hQBECwHbaMSPCOolZKgH27YvcW4cqIGRge3PCmVQCmPxG5/TGhkjJWjhz9NkwSqaFcnTIN/329cPeLgQTSdQsRhb+MX9thmyKR3lKYEg8yCf2PfHdRZYzG8fSwjBsnl1f5WIIHt27n7YCfK3Iw02MjecWjEjOQannDRqJWF9HfT9T+HFfhrLm6tQ0rE+cqxvLEzEXIAjzD3i+JebzKtTYhJEXXl6TjjgOWqU6qZikUJDE6SBffrYHqQcRyQq2i+OXJVIpZrI5gC1PTMlWqWFukqQQeeM++fzGsS7+Rvknygg3gbD2EYs8U47mKhekzQyAk0v5QI/Q7dMZ/JuZ1NIkT6wIn7YjBtv3IrNKK9rNZwvjFTMDMLUdmqELVWbhgs60MCIgjyiBvAtijX8PNUvEoUlAKKNAIXS4IDUysWIEkTYgTscZjIZ5YB1EFWsR5TB3APufqeuG/ijMilV10azrUZFLaRuSt1ebOvMTO/bCzxvlcfJTHlSjUn2/JRTh1HSldn0AMxNyNRFwogduUE8sZbi61qoLsHqTqYsLhbkEtAtJHX+X3w5XrVqlKkrMDIkoAApEgpbk+5taCBG+FamXZWEmNiOh5SRESBAPUDHTHGoxpo55Zm58k/oScjltUlnQLMHUZaOZCi5xoqdQrTZQA4IsRY9JM27YmcLoUhXbxRyLKDGnY2IIv2w58Qkox0KkEhpEdNwRzsB2vG5wkYhyJ8qI+YohWs0ySTfbsepxV+GqKNVqK7aQ1JvNEhdJDS3QAgHqYAFyJlIwPXD9WoFpimN2hn9BdE9B8xHXT+EYecqR04sTnUfyUOO8Xp1Ip0ENOgsQD81Rh/8Sr1PRdlkxucF4DwB8wQx8lL8W5PUIP6m3rtgHwzwjx3lv+2l27nko/r27kY3jVlppqaFVR6AAf0xKMb9zL5up9Beli7+WK0eHUMv/wBtBqH87Xb6nb0EDA89xIL81ZFY8iRPsMZjjvxC9ViEJROUWY9ydx6DEfxIweS8E4dFkn7ssqv92WeIZ56zQayBf8bx+dvtjtPhcMQ5q6/QzPuP1xnqmZvY/fHeVrujalcqeoP59R2ODbFn0ijvHM1FTg8FWSWEiVO49Dz9N/XFStw+hUou4UKRTYB9gDp+bpI6+uJnBeNaxpezcjyb9D9vTbFLiP8AeUWpgWYjUe1p9TbC+mr5InPqsko+nPf1MLn8wSlNQPmB1ex0x6ThZHMDzt/pH64b4zVQwFUQgKr3vJPf/fC6LYeZfrhyA5k+KusCRY2kAx9tsWcvorsxYCRTIEeWYEjYgbc8Z9ABfnipwuoVdXAssSOR7ffHS43HRyckpJsd+Gssq1mRwWR6TE2InVTt9JnoCBibwqs1Oo1J4lTK735Hf2wbL8WqZao1RQA0aAZBuABqI9pgjmN8L8SrBxTqKp8WmBqNoYACTAAg847n0Elou2noHx/Lo9QPPmbedjAAEe0YVzAZAAJ1GIje+yjv2wxxSorhCsxBJmxBPLfa2+NT8O5AUaX8TUSXMCkou5JMBwIOkbDUYjlM4zQqfazO8Ly1RDNUEFgYpfzPv5jfyIPxHofXHmcyzM5arNSo0H8KARA1R5htZYWwBmDihxrj4amXViKuoKGK6XKaZI80kKGtvyHPCdLOh1UQR5Y2Am8zbf153wdLQduXYWrq/kcEKVIpsL+WB5D3UqP/AKT2wfL8UFSi1OooYrOlgADPL0/4wxTUVAEO5IWBuysYj1U+YHlfkTiLRPhsQCD1wXvZqVnD5ga9RGyRAG5Eb/rj9OohpJG08zaMJPVOoqLSYt6/lhqlVCnw7mCbjmeeJJ60Xye4PncloJcXphtIm8eUMAfWftgOubn1wfiGYmkFHNyTHOwH9MA4euqrTHLUv0kTicnylR29PPhjbZ9E4BlfCoIg3IDN6m5/fbEL4y4qXfwQfKsFo5ncA+gv6kdMW6NcAb9sfPMxnNTs/NmJ+pw09HL0lSyuc/GwtV+l8CJje+PaJUmGbT3icUU4ICJ8QkHmAP1xTCoxjb7let6iU5cU9ITr0WFIP3J9sL5av7YvZmkPDCbgAD6CMSanD9PmBJ6zhm7OKMq7DmXabYv5bOnwnkmQreu2474zmTSb7Yo01LBl6qQPphaoM5ciXWoQqgD9jHqUBA/f9MGU2ixsPuJj1xzAxkhR9MirXmJ/d8N8SYUKaou52PSeY7z+5jAqIOnqeQwjxnNkhQ5g2vsN5v7HHRN+3RyY1ctk5FLFRyge0EgicNZatBbno3/I4EKoDMD/ADloI7tP9ZxzwjJVq1VkpD/OxkAA2uR15AXPLEG0ls7OLkzrLOEY6hNNrHqOcj7Y1hptms0lGnUIpJSHyqlkZUZV1FTfVvbcOwF8FyXw3lqSMa1QOwW4PpYb+GnSH1ja++K3A1p0FBATUVUFlRU1QJ1EIACLkiwIDEHbEJ5FWjrw9JKU0mtme458HplF8cPUZ0BqKS6tdXT5gaQkHV15c5xnW4u9et4lSC7RspuZ2iepj933fxfXNeg6KNTFGCgbklkgDvjG0uDVqCkim5eDLaTYfzR0UDc/zX/lBkYZ8lbKdbgWKSjH4B5uv4bAiZ0m882DIZsRYXHfEt6lIKDLF5uCTET1AHLDaZSrUWadGo6GQGCmCRvHW84TPBMySQKFSxg+Q7wDG28EH3GKzkvk5IRdbKfw98PHP13SiQhp0vEIKm+kqCBeZk740X/9RV9YAr0gSWA+bdXFP2kmR2xI+DM1nOH1XrJlajFk0bMIGpXJsL/LHucajO/2j5sJUL5AorCGYagQGhWBMT5iRfrGINtPR1RjHirr8kzif9m1VE1mtTAUMdIVyYUqpubSdSmCbz2MYnh1TTVQ9GH6Y+icT+Oc06VPEyDQVbV5qgABVAbARY0wZO0sNjjA/wDRczM+BUmxupB/fthVfK2NLiocY99mhGekGDjH1GiRz/Q4vDL1qQ1VKTqvUqQB2J2wlm+BZguWShUIN/kPP1GOifZM4sVptE1HvfFHhebbWFBMcxywM8DzU3oVb9UP54ayfB8yknwKk7fKcNDIuNDzjex+rUk25b++AZmgSR5vLzws+WrBwrJUDm4XSZPdRuef3xVbI5gAg0mPQhTB6Ye0c/Bi9JLgYsZAE/yxEX69sKjLmmF8QFWiYI/LFnhlHyyTY33wDdiLxXJBGkc+f9PbCcfuMXuK0QCoMkza3KJv2xO/hh+I/XGAI5LNTFycfuMQabHtyvzg4l5NzM4czhmkx7QfcjFXtEuPGaEqCF0pxJbUUAG5YiFA+w98aXK5kUEqQ0UqW5WAajzpJUwbMw0rOyLJEzMD4ZqEPq/B4lQf5qdJ3X7gYNxoxRo0hsSzH/xAQfSGP/ljhm3JqJ63TtQUp+VpfdjeQrvmKgar/wBtZY0xOkD8PqxIEkydyTjSUqgckPteeUkzA9zf0DYg8KoeHSWbFwHPpcUwfaW/8x0w9Td/Fo09DAOQzvpMKGW14iymefzMLXic1ylxXZHXgfoYHkf6paX/AEp8GzQD0Sbxp/NcLVmNUkKq6itVUgAX8J1XbrYe5wLLUmp1FQ3iCGBkMu4ZTzXCq5pkunzeZQemoNTLeoDEjvGIdkr+T0PbklKt3FUUcmUCLSUA00BAMAkqouwMbvBIHVu+PKuZNRyvlIDFVECAFtbosgn3PfCYraAsdC/otKCvs1UoP/BhgOWdhAWZAidIfcQZBDAyCRcHfGk3X3GxQgpukvaq32sZyWcpAvUSojsiHSFJkEkKrbWEnSf8/rg+U0kOzAeRNZsBOiojx7lYjvhTMaVQUwqBi51stOmnyAFkPhqJAZk6+ZX5RgMl1AGxPmHaZj6gYE3xao3TR9aEnOrelXwh/INpWpWjzBYHWWYGQeqsFPvgVMEj5gN99zpXW0dYUSfUdceZp9NKkn4i1Qx6AL7EEf6ce08z4dNTCljEEiSPEVmYRzBQUp9sFR+fCsWU+G4pcm6X2QbJQNbEAhV5gRq1h0B7Ep9Ywu6zLEqOZZuZPUwSSb/Q4Nmc0TSSQoLsTYaZVbXA5hgCD0bC6qzWtonUxamjqAgaWOtDsC21ztuQMDykFP8AtzypJO6V9tdwz1lGXCoysXa5UWtEi4E8uW5OA08uVAc6b7Dc9do6EH3GCZt1JGlQihR5QFWCfMZCgLqvBgbjHALMyKTN1UeVVAmE1NpEmwAm5tgya5NIbDCsanKt7f2+iHXrxSV9K6mZwsCIU6Q8D1QTyMnqZAz21EU9lOwkahqWbbkX974/GotYBUPmQeVGgFhF2HLXAuv0JvgOWrs0Uw5Q2CsLbeUJU7DYNumx8vyPXu4s5IZF6byY0nttrzXg4ztRWVAoADM7wBG5FP7mmT74pUszoVVi5Fh6c8QqpZn1Ek2i5v0/pGGmuFOzBpZiSfQDHdCPGKR4GafObl8j+bzBYHEv+OH4x9sGr5kCCDy6RftjN1OIiT/c8+v+2HJpNnWWy8iY27xj2nVLBqciCpNx0839MPcDRWfwqh0h1lDt5rWvvIOFs7kWo1SrEaoYA8vMpCt6XnFLtNAS3bOuBqi+DqMCo703/wAIqI1P7Ag4dbh5ZQagIFB28URB0FQ2kHqWRlHd05YjZyoGXQLKDb28st3j74t8X4q1SjTpsIdwHqGZ1AeVGbozBQxG1lP80Y48vtaZ34PcnD5Z4ld6pJgaiNTQQqgWEeYgAXA3x1l0qK0AKT+HxUP28Q/QDAWyFT+HldWpzqhSCxCfKoWdRHm1EgbNTOJfB1q066VDScsjA6Spkxy2nEY473ezsy9a4vgkqWto2eTrOE/vNKh5NKm3zSLu6DdUImQbTBETeC1UtUKLuXKj11EYPVrhKnjVgyVCCB4tUloIItTSlqCgbWUbQThfONTpqayCGq69BaoTAaZcKaKWuQDO8xMGNLHdITF1fpylL5+DvMZlTqZTIZ1pU/8A5dIa3/1Mabepbpj1cyrBaXiVEdqguqTNgqCdY2Je0cx0wlwiqHVaJTxG1kppYKfMBqBJUiPKDyi88oabRQqKxokupnT4ytpNwNYFOxG8TIth3jlytCLqI+jKDbtu2HqUgKooTZAEJHcmpUYdIDn/AEY6zOYnMVVW2qs4UdNVQhR6CR9MINxCjrd1Vg9TXc1QwXXOowKa8iRvz7YZOYQ1GqhGVmLtJqAgFpkgaAbTIv0wssMpd/kfH1yx1x8JpfdhuLZkGs8WVQKYjookj2ZiPbHGczi1HHhhtI1EalCkliBAAJ2VUH1wzUyALzVp+GXOojxVG5JZgugkCx3O9vRGnSWkQ7sCVMhUBiRddRbSQJjYNMRhXjlbXyVh1WLim3tL8sZ4tmAtUUwZFNFT1MAk+saZ7g49V0rN89QIiqXDKAoVY1mznmS22JtTOU28z0zqi7LVCgkCJgoYMb3+mDZTO0gjqqNDiCfFBtEEA+GLQe/LDxxyi26IZOpxzxKDb1/tjvDa7VX1TpJlpidLMdKsP8rsG9FwThuZ8Wrr2GouJ/lAMoD2+Ue+E6Gdp01ZQhhpBmoJIKstiEEfNPPYY8p5lEUimk6xDA1JlDYr5VBHK+F9GWir6+Nun4pfyGpcQBOoyisG0haaErIOi4AbyyDIPIY6o57XXL8kEzABJUQrEDmzRblMTbCa1aewpt2AqD6XTDWUqUwpAUrMTfUT2mBA7Rvzthlim37uxOfVYIxbx2pVR0RfYDoD0G3v1wOtVIEDnbAqubFwP+ecdumEc5niwuAI5Afu2Ow8gBRr1NTIZsxtF5J++O9B6P8A6R+uBKWczqIJ3P8Avvhv+Afq31/2xhnR7lqlN1hlmLjt6dMeZyp4zqpYTGkFjHoCQPzxIWtEEEiN8d05bsDvzt6YbkZQoKKCCqEqEhQ0OwvAmGIA59MVMxWoVHLGsomBpRHGlQAAqygFgIEnCWTyiyJBK3n6dsN08tS1fKY5eV/0xGcFLuWhmcP0nf8A1MV4WqhXTIUoZ0rqLKpVrEiYkFbAdMFcKBevmI/CB/8AujAxTpgz55kfytH/ALdvvgx8MSCrR/lfaAemFeOLCupnVfwhceDTulMs34qkG/8AkFv9RYYq/CPG6VNq9Su5Ws6hadQozxN28oIHJd+kC0jCFKjTKmAx9Q3vsMArUqdoVu/lfpywyhFaROWSUnbNrkfiCgKj1KlVmbwqVJXNIgtp1VKjlVPl1MwEdFxKqVMvUznjuS1M1FY+U7Kqg+UkmJEYiVswhWwaQPwvvpHbHVGsgMQ0f5X9OnXDKKQG2zSVuNjx6RbMtWphzUNPwQglQWpgEST59PYC+DZHiFBTSJp+FFU1KgGupJWmwp3a/wA7liB+EdbQ+HLTJnnJ3DCLyN98UmpLv+4xqQvJnvxZxBarUjTJbTrnylYnTHzN25YZzWYy8GpTqHWlE0qYNMjSShQsTNz5mO2+J1ZwQJX/AG/XEurTH/qmLyLjGo3KyrV4zQpZulXpV3FLyU3XwYilTVYpgtM6iomAIkmce8D+NQgL5gM9SrVAqFRp8Oko8oWAAxBZjG9r3xnqwVVDXBAiYaNt/XHeYNOGiRYwSrAbQNxG+NxQ1s0y/ElImo38S1F3rFm00S801UJTUavlsCx7nAf/AOV5ZniqrCnVqValRlXz0zqC0tPUeGulgPxnpjPUzQJ8oJ6wGPMfqcetQpkkkHex0vtHYdcbigcmFHFBVqVargS7s3sSSB7C2OalQbqQO2F6S0Ax1SBYCVcfcjfHtPw9xJgnYN+H03nDWK1sTr1gJkXO14iefcdu+B180rkAWAET19Md8TCtdFaIMmDvPMntietUhp2McvTA5FFDRVyaiP2RzjFDxf8AF+/piLQrQf8Af2322w143r98Em0RWMjB6FU9f0wopx2kg4kpHQ1ovZCsTIkc4sTNtt8NVNandeZ29e/7nCGQpsyTb3I9NsNU6cLLKCJCyIiTcSSe2HbI0E0lrAi8GdJ2Ed+ePKlViCZXccj0A64UcofLoFjeNPMGL6vTHaqP/Smw5J0/zYDY6QzRqPa4Ez/KeZ/zYaZGMeZfoen+bv8AbEZa6IQKlPzRcBVjpa/bBEzlIjToJMiIVe3fBTFaoapgspAIvM2O8Dvj8Fe11v8A4Ty834t7YPwegapqLTo6tAvZBE6urCdjt09McDhD1DakQQwX5qamSFIUAuNVnUmAY1CYxm0ZJjHD3MmYIGoG3154oVaoUAKQo6fc88I0uC5lWvQ0wuolmpIsHSdQZnAIiog9SRuDg1bhlQeGrUDLMqj5Ll0NRR82xW87Wje2BaYHFoCaz/3pkGxO3QEjn2wGnVq6gCOkki354KnCWJokZc6qv/bvTBNtUkF5XygnzwLYM3BqoJbwRF5/vKNo3Y/3nyDS3n+W2+DZqE8yNSBYXkCCDzMTvgTa7/L/AKT3/wAWD5vhtSmjPUy7Kg/mhCPm0GCGv5iBbt64nPmaVjoPy/hHbv2xrN2DrTcw0xF4A6nn5u2DMXjTIEC1j0/zYQ/jaU3QxMxpH69MGUjSP7qZAiydhvP7nGs1BauWJIXUPxWB9Ou0HHlKg3LSNj8vOPW/+2AVKyLGqmRJNoWdtt/TBBEx4RJJPJO5gebl/TACD4ixWnbT59QNjad+ffENgQZxQfIuFkrYCSZG3Xe+F8yoG/3Bv/TAY0X4BLUg6h2t16nBv+o/4VwA0yb6Y2x1A/C33xk2M+LFVMHafXBFe+1hyxwFNz03/LHJbEk6HHstxDSunSDvuAd/UYLX4szW2E6iBAk9bDe+JinHs3w6kLQ+ufNzFzAMnp7Y8qcTeLWI9D/TCE4I9OIggzgXYaOq9dnMsb/7z/XFHhXDq1Sm70o0gkGTew1GB6X9AemJGPVOBbNRqE4fUoUTXo5gsXQOVCbgMEaSSbrr6dTaMUJzgYlGpEsxedKuVdNNNispKyVUTt5bxIxlqvF67Loas7KQAV1GIFgPQYXIIAJBgnDIFG3yXFM5pdqlXY1KcMikCFVmABSCIphokbH8V1c9n8+UpzVBCsnhwBKkNpXT5YBlgN5I6gWzq5upTJC9BeBPI8+hAPYjCTVT/wA/06Y3YFWbf/8A0WK6jT8jllhUjUSyyQFuLmJtBnlbtM3nqqByUYMCflpyVKk+HGmSpBPkuN8YQViO2PQ5tg2bibrNnMijUp1I8IFdQER82tSsC/meJHYHYYmcR+H6iqz2CgFudgN+Vo6HfGeWvaBvjg1DefvhrE4jWnUCV/lF5+2OKeeZdjE74XNYgFeu/fHLQWMd98ByGUEUafEdRJcnaAABN998HXOoDINQm9yExLpkREbmQfTv0x4p+/TljIzRUzmdBXSGe45hYjpa9sJrUsPy5YVYxj8r9cazcdFJswIuP3GF9ZwGhVGoaxbBiyfhxhXGj//Z</t>
+  </si>
+  <si>
+    <t>Avengers: Đế chế Ultron là một phim của điện ảnh Hoa Kỳ được xây dựng dựa trên nguyên mẫu các thành viên trong biệt đội siêu anh hùng Avengers của hãng Marvel Comics, sản xuất bởi Marvel Studios và phân phối bởi Walt Disney Studios Motion Pictures.</t>
   </si>
 </sst>
 </file>
@@ -209,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -220,12 +232,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -235,8 +241,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -610,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -626,14 +635,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -657,92 +666,104 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8">
-        <v>123</v>
+      <c r="E4" s="5">
+        <v>90</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8">
-        <v>125</v>
+      <c r="E5" s="5">
+        <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11">
-        <v>125</v>
+      <c r="E6" s="5">
+        <v>90</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="11">
-        <v>120</v>
+      <c r="E7" s="5">
+        <v>90</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5">
+        <v>90</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
